--- a/prices/price.xlsx
+++ b/prices/price.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Champion</t>
   </si>
   <si>
-    <t>Champion|3032</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -155,6 +152,12 @@
   </si>
   <si>
     <t>Ремкомплект заднего суппорта Mitsubishi Outlander 2013-2017. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>Champion|3032&amp;CHRYSLER|SPRE10PMC5</t>
+  </si>
+  <si>
+    <t>Свеча зажигания Dodge Interpid, Chrysler Sebring с мотором 2.7 до 2005г. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -590,19 +593,19 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -611,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1">
         <v>6</v>
@@ -622,28 +625,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
         <v>185</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -652,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P3" s="1">
         <v>4</v>
@@ -663,28 +666,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1">
         <v>500</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -693,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
@@ -704,28 +707,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
         <v>500</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -734,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
@@ -745,28 +748,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>710428</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1">
         <v>980</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -775,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -786,28 +789,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1">
         <v>430</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -816,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="1">
         <v>2</v>
@@ -827,25 +830,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>14346020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1">
         <v>340</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -854,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>

--- a/prices/price.xlsx
+++ b/prices/price.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="02062018" sheetId="1" r:id="rId1"/>
+    <sheet name="04062018" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Сальник полуоси заднего моста, Timken 4762N</t>
   </si>
   <si>
-    <t>Ремкомплект заднего суппорта тормозного Mitsubishi Outlander 13-17, Centric 14346020</t>
-  </si>
-  <si>
     <t>https://www.nixparts.com/assets/pictures/TIMKEN/3459S_01.JPG,https://www.nixparts.com/assets/pictures/TIMKEN/3459S_02.JPG</t>
   </si>
   <si>
@@ -158,6 +155,132 @@
   </si>
   <si>
     <t>Свеча зажигания Dodge Interpid, Chrysler Sebring с мотором 2.7 до 2005г. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>B241</t>
+  </si>
+  <si>
+    <t>G3606</t>
+  </si>
+  <si>
+    <t>EDELMANN</t>
+  </si>
+  <si>
+    <t>FRAM</t>
+  </si>
+  <si>
+    <t>NATIONAL</t>
+  </si>
+  <si>
+    <t>GM|24236933&amp;ACDELCO|24236933&amp;GM|24224781&amp;ACDELCO|24224781</t>
+  </si>
+  <si>
+    <t>Фильтр АКПП 6L50 с прокладкой поддона, ATP B241</t>
+  </si>
+  <si>
+    <t>Ремкомплект рулевого редуктора, Edelmann 8763</t>
+  </si>
+  <si>
+    <t>Ремкомплект рулевого редуктора, Edelmann 8775</t>
+  </si>
+  <si>
+    <t>Ремкомплект рулевого редуктора (полный, с подшипниками), Edelmann 8522</t>
+  </si>
+  <si>
+    <t>Ремкомплект рулевого редуктора, Edelmann 8774</t>
+  </si>
+  <si>
+    <t>Фильтр топливный, Fram G3606</t>
+  </si>
+  <si>
+    <t>Сальник полуоси переднего редуктора, National 710648</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/ATP/B241_01.JPG,https://www.nixparts.com/assets/pictures/ATP/B241_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/FRAM/G3606_01.JPG,https://www.nixparts.com/assets/pictures/FRAM/G3606_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/EDELMANN/8763_01.JPG,https://www.nixparts.com/assets/pictures/EDELMANN/8763_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/EDELMANN/8775_01.JPG,https://www.nixparts.com/assets/pictures/EDELMANN/8775_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/EDELMANN/8522_01.JPG,https://www.nixparts.com/assets/pictures/EDELMANN/8522_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/EDELMANN/8774_01.JPG,https://www.nixparts.com/assets/pictures/EDELMANN/8774_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/NATIONAL/710648_01.JPG,https://www.nixparts.com/assets/pictures/NATIONAL/710648_02.JPG</t>
+  </si>
+  <si>
+    <t>ACDELCO|36350650&amp;CHRYSLER|5014671AA&amp;CHRYSLER|4470365&amp;CHRYSLER|4470365&amp;CHRYSLER|3893558&amp;GM|26002516&amp;GM|19146567</t>
+  </si>
+  <si>
+    <t>CHRYSLER|4886349AA&amp;CHRYSLER|3893558&amp;CHRYSLER|J8125038&amp;CHRYSLER|4897000AA&amp;CHRYSLER|5014671AA</t>
+  </si>
+  <si>
+    <t>ACDELCO|36350430&amp;CHRYSLER|4333997&amp;CHRYSLER|J3204833&amp;CHRYSLER|J4487154&amp;GM|5697804&amp;CHRYSLER|J8134568&amp;CHRYSLER|J8125038&amp;CHRYSLER|J8130157&amp;CHRYSLER|J8125037&amp;ACDELCO|36350430&amp;GM|19146548</t>
+  </si>
+  <si>
+    <t>GATES|349620&amp;CHRYSLER|5014665AA&amp;GM|19146481</t>
+  </si>
+  <si>
+    <t>GM|22761722&amp;TIMKEN|710648&amp;GM|15801507&amp;GM|12471682&amp;GM|12479012</t>
+  </si>
+  <si>
+    <t>Cadillac CTS, Cadillac SRX, Cadillac Escalade, Chevrolet Silverado, Chevrolet Express, GMC Canyon</t>
+  </si>
+  <si>
+    <t>Cadillac Escalade 2002-2006, Jeep Cherokee 1996-2000, Jeep Wrangler 1997-2002, Jeep Grand Cherokee 1996-2004, Dodge Durango 1998-1999, Dodge Dakota 1997-1999, Dodge Ram 1500 1994-2001, Dodge Ram 2500 1994-2001, Ram 1500 1999-2003, Ram 2500 1999-2000, Ram 3500 1997-2000, Chevrolet Express 1500 1996-2005, Chevrolet Express 2500 1996-2005, Chevrolet Express 3500 1996-2005, Chevrolet Silverado 1500 1999-2007, Chevrolet Suburban 1500 200-2006, Chevrolet Tahoe 1995-2006, GMC Savana, GMC Sierra, Hummer H2 2002-2009</t>
+  </si>
+  <si>
+    <t>Ремкомплект рулевого редуктора Hummer H2, Jeep Grand Cherokee, Cadillac Escalade, Ram 1500 и др. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>Ремкомплект заднего суппорта тормозного Mitsubishi Outlander 2013-2017, Centric 14346020</t>
+  </si>
+  <si>
+    <t>Mitsubishi Outlander 13-17</t>
+  </si>
+  <si>
+    <t>Fram|G3606&amp;Donaldson|P550012&amp;Wix|33095&amp;MANN|MWK44&amp;Fleetguard|FF5672&amp;Mahle|KL97&amp;Cam-Am|709000100&amp;Cam-Am|513033719</t>
+  </si>
+  <si>
+    <t>HONDA VTX, Yamaha WR250R, CFMoto CF500</t>
+  </si>
+  <si>
+    <t>Сальник полуоси переднего редуктора Hummer H2, Jeep Grand Cherokee, Cadillac Escalade, Ram 1500 и др. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>Фильтр АКПП с прокладкой поддона Cadillac CTS, Cadillac SRX, Cadillac Escalade, Chevrolet Silverado, Chevrolet Express, GMC Canyon и др. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>Фильтр топливной системы. Подходит как универсальный для мото-техники, имеет степень фильтрации 10 микрон. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>JEEP CHEROKEE 1979-1995, JEEP GRAND CHEROKEE 1993-1995, GMC JIMMY 1992-1993, JEEP WRANGLER 1987-1995</t>
+  </si>
+  <si>
+    <t>Ремкомплект рулевого редуктора на JEEP CHEROKEE 1979-1995, JEEP GRAND CHEROKEE 1993-1995, GMC JIMMY 1992-1993, JEEP WRANGLER 1987-1995 и др. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>CADILLAC ESCALADE 2002-2006, CHEVROLET AVALANCHE 1500 2002-2006, CHEVROLET AVALANCHE 2500 2002-2006, CHEVROLET C3500 PICKUP 2003, CHEVROLET SILVERADO 1500 1999-2010, CHEVROLET SILVERADO 1500 CLASSIC 2007, CHEVROLET SILVERADO 2500 1999-2010, CHEVROLET SILVERADO 2500 CLASSIC 2007, CHEVROLET SILVERADO 3500 2001-2010, CHEVROLET SILVERADO 3500 CLASSIC 2007, CHEVROLET SONORA 2003-2006, CHEVROLET SUBURBAN 1500 2000-2006, CHEVROLET SUBURBAN 2500 2000-2006, CHEVROLET TAHOE 2000-2006, GMC SIERRA 1500 1999-2009, GMC SIERRA 1500 CLASSIC 2007, GMC SIERRA 2500 1999-2010, GMC SIERRA 2500 CLASSIC 2007, GMC SIERRA 3500 2001-2010, GMC SIERRA 3500 CLASSIC 2007, GMC YUKON 2000-2006, GMC YUKON XL 1500 2000-2006, GMC YUKON XL 2500 2001-2006, JEEP GRAND CHEROKEE 1999-2004, NISSAN FRONTIER 2000-2004, NISSAN XTERRA 2000-2004</t>
+  </si>
+  <si>
+    <t>Hummer H2, Jeep Grand Cherokee, Cadillac Escalade, Ram 1500</t>
+  </si>
+  <si>
+    <t>Ремкомплект рулевого редуктора на CADILLAC ESCALADE, CHEVROLET SILVERADO 1500, CHEVROLET SUBURBAN, CHEVROLET TAHOE, GMC SIERRA, GMC YUKON, JEEP GRAND CHEROKEE, NISSAN FRONTIER, NISSAN XTERRA и др. Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>Dodge Interpid, Chrysler Sebrin</t>
   </si>
 </sst>
 </file>
@@ -503,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +639,7 @@
     <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="58.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -593,10 +716,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -615,6 +738,9 @@
       </c>
       <c r="N2" t="s">
         <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="P2" s="1">
         <v>6</v>
@@ -707,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -716,7 +842,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -737,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
@@ -748,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>710428</v>
@@ -757,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
@@ -778,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -798,7 +924,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -819,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="1">
         <v>2</v>
@@ -830,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
         <v>14346020</v>
@@ -839,7 +965,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -857,13 +983,325 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8763</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8775</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1700</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8522</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8774</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>300</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>710648</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>600</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prices/price.xlsx
+++ b/prices/price.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="1">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="1">
-        <v>980</v>
+        <v>820</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -933,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="1">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>

--- a/prices/price.xlsx
+++ b/prices/price.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="04062018" sheetId="1" r:id="rId1"/>
+    <sheet name="15062018" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -281,6 +281,33 @@
   </si>
   <si>
     <t>Dodge Interpid, Chrysler Sebrin</t>
+  </si>
+  <si>
+    <t>Радиатор АКПП, Hayden OC1405</t>
+  </si>
+  <si>
+    <t>OC1405</t>
+  </si>
+  <si>
+    <t>Hayden</t>
+  </si>
+  <si>
+    <t>Hayden|1405&amp;Hayden|1404&amp;Hayden|1403|Hayden|1402&amp;Hayden|1401</t>
+  </si>
+  <si>
+    <t>Универсальный радиатор АКПП Hayden OC1405. В комплекте пластиковые стяжки для монтажа, шланг с хомутами.  Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/Hayden/1405_01.JPG,https://www.nixparts.com/assets/pictures/Hayden/1405_02.JPG,https://www.nixparts.com/assets/pictures/Hayden/1405_03.JPG</t>
+  </si>
+  <si>
+    <t>Hummer H2, Jeep Grand Cherokee, Cadillac Escalade, Ram 1500, Suzuki Jimny, Chevrolet Tahoe,  Volvo XC90, Infiniti FX, Volvo S80, Volvo S60, Mitsubishi Pajero Sport, Saab 9-5</t>
+  </si>
+  <si>
+    <t>Радиатор АКПП, Hayden 1405</t>
+  </si>
+  <si>
+    <t>Универсальный радиатор АКПП Hayden 1405. В комплекте пластиковые стяжки для монтажа, шланг с хомутами.  Данная деталь в наличии. Оплата товара за наличный расчет.</t>
   </si>
 </sst>
 </file>
@@ -626,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1327,94 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3800</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1405</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3800</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/prices/price.xlsx
+++ b/prices/price.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="15062018" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'15062018'!$A$1:$E$20</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -308,6 +311,33 @@
   </si>
   <si>
     <t>Универсальный радиатор АКПП Hayden 1405. В комплекте пластиковые стяжки для монтажа, шланг с хомутами.  Данная деталь в наличии. Оплата товара за наличный расчет.</t>
+  </si>
+  <si>
+    <t>Свеча зажигания, Champion RCJ7Y</t>
+  </si>
+  <si>
+    <t>RCJ7Y</t>
+  </si>
+  <si>
+    <t>Свеча зажигания, Champion RC12YC</t>
+  </si>
+  <si>
+    <t>RC12YC</t>
+  </si>
+  <si>
+    <t>Свеча зажигания, Champion RJ19LM</t>
+  </si>
+  <si>
+    <t>RJ19LM</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/CHAMPION/RCJ7Y_01.JPG,https://www.nixparts.com/assets/pictures/CHAMPION/RCJ7Y_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/CHAMPION/RC12YC_01.JPG,https://www.nixparts.com/assets/pictures/CHAMPION/RC12YC_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/CHAMPION/RJ19LM_01.JPG,https://www.nixparts.com/assets/pictures/CHAMPION/RJ19LM_02.JPG</t>
   </si>
 </sst>
 </file>
@@ -653,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1445,122 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>150</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1">
+        <v>150</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>170</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/prices/price.xlsx
+++ b/prices/price.xlsx
@@ -301,9 +301,6 @@
     <t>Универсальный радиатор АКПП Hayden OC1405. В комплекте пластиковые стяжки для монтажа, шланг с хомутами.  Данная деталь в наличии. Оплата товара за наличный расчет.</t>
   </si>
   <si>
-    <t>https://www.nixparts.com/assets/pictures/Hayden/1405_01.JPG,https://www.nixparts.com/assets/pictures/Hayden/1405_02.JPG,https://www.nixparts.com/assets/pictures/Hayden/1405_03.JPG</t>
-  </si>
-  <si>
     <t>Hummer H2, Jeep Grand Cherokee, Cadillac Escalade, Ram 1500, Suzuki Jimny, Chevrolet Tahoe,  Volvo XC90, Infiniti FX, Volvo S80, Volvo S60, Mitsubishi Pajero Sport, Saab 9-5</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>https://www.nixparts.com/assets/pictures/CHAMPION/RJ19LM_01.JPG,https://www.nixparts.com/assets/pictures/CHAMPION/RJ19LM_02.JPG</t>
+  </si>
+  <si>
+    <t>https://www.nixparts.com/assets/pictures/HAYDEN/1405_01.JPG,https://www.nixparts.com/assets/pictures/HAYDEN/1405_02.JPG,https://www.nixparts.com/assets/pictures/HAYDEN/1405_03.JPG</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1">
         <v>1405</v>
@@ -1418,7 +1418,7 @@
         <v>92</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>18</v>
@@ -1436,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
@@ -1450,10 +1450,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
@@ -1488,10 +1488,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P19" s="1">
         <v>1</v>
@@ -1526,10 +1526,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>

--- a/prices/price.xlsx
+++ b/prices/price.xlsx
@@ -686,7 +686,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1398,7 @@
         <v>94</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>94</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">

--- a/prices/price.xlsx
+++ b/prices/price.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>https://www.nixparts.com/assets/pictures/HAYDEN/1405_01.JPG,https://www.nixparts.com/assets/pictures/HAYDEN/1405_02.JPG,https://www.nixparts.com/assets/pictures/HAYDEN/1405_03.JPG</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1386,7 @@
         <v>3800</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1427,7 +1430,7 @@
         <v>3800</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
